--- a/xlsx/地理學_intext.xlsx
+++ b/xlsx/地理學_intext.xlsx
@@ -29,7 +29,7 @@
     <t>風水</t>
   </si>
   <si>
-    <t>政策_政策_政治學_地理學</t>
+    <t>体育运动_体育运动_古罗马_地理學</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83</t>
